--- a/Unity/Assets/Config/Excel/AbilityConfig/GlobalBuffConfig/UnitGlobalBuffCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GlobalBuffConfig/UnitGlobalBuffCfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalBuffConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalBuffConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3113D0CC-F7EE-4456-A6FB-49AF8CE4D113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D978F93F-8019-420C-976C-0CB4C110AFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
   <si>
     <t>##var</t>
   </si>
@@ -285,13 +285,25 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CoinAdd_Attack_TowerGoblin1</t>
-  </si>
-  <si>
-    <t>CoinAdd_Attack_TowerGoblin2</t>
-  </si>
-  <si>
-    <t>CoinAdd_Attack_TowerGoblin3</t>
+    <t>CoinAdd_TowerAlchemy1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoinAdd_TowerAlchemy2</t>
+  </si>
+  <si>
+    <t>CoinAdd_TowerAlchemy3</t>
+  </si>
+  <si>
+    <t>EffectCreate_BuffTowerAlchemy1</t>
+  </si>
+  <si>
+    <t>EffectCreate_BuffTowerAlchemy2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_BuffTowerAlchemy3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -755,31 +767,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z29"/>
+  <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
-    <col min="6" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50.77734375" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" customWidth="1"/>
-    <col min="10" max="10" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="42.625" customWidth="1"/>
+    <col min="5" max="5" width="8.875" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" customWidth="1"/>
+    <col min="8" max="8" width="50.75" customWidth="1"/>
+    <col min="9" max="9" width="8.625" customWidth="1"/>
+    <col min="10" max="10" width="40.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.875" customWidth="1"/>
+    <col min="12" max="12" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -819,7 +832,7 @@
       <c r="Y1"/>
       <c r="Z1"/>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -859,7 +872,7 @@
       <c r="Y2"/>
       <c r="Z2"/>
     </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -885,7 +898,7 @@
       <c r="Y3"/>
       <c r="Z3"/>
     </row>
-    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -925,7 +938,7 @@
       <c r="Y4"/>
       <c r="Z4"/>
     </row>
-    <row r="5" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -953,7 +966,7 @@
       <c r="Y5"/>
       <c r="Z5"/>
     </row>
-    <row r="6" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
@@ -997,7 +1010,7 @@
       <c r="Y6"/>
       <c r="Z6"/>
     </row>
-    <row r="7" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>46</v>
       </c>
@@ -1019,7 +1032,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>46</v>
       </c>
@@ -1041,7 +1054,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>46</v>
       </c>
@@ -1063,7 +1076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>46</v>
       </c>
@@ -1084,7 +1097,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>46</v>
       </c>
@@ -1105,7 +1118,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>46</v>
       </c>
@@ -1126,7 +1139,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
         <v>46</v>
       </c>
@@ -1147,7 +1160,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
         <v>46</v>
       </c>
@@ -1168,7 +1181,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
         <v>46</v>
       </c>
@@ -1189,7 +1202,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
         <v>46</v>
       </c>
@@ -1210,7 +1223,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
         <v>46</v>
       </c>
@@ -1231,7 +1244,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
         <v>46</v>
       </c>
@@ -1252,7 +1265,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
         <v>46</v>
       </c>
@@ -1273,7 +1286,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
         <v>46</v>
       </c>
@@ -1294,7 +1307,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="s">
         <v>46</v>
       </c>
@@ -1315,7 +1328,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
         <v>46</v>
       </c>
@@ -1336,7 +1349,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
         <v>46</v>
       </c>
@@ -1357,7 +1370,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="9" t="s">
         <v>46</v>
       </c>
@@ -1378,7 +1391,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="9" t="s">
         <v>46</v>
       </c>
@@ -1399,7 +1412,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="9" t="s">
         <v>46</v>
       </c>
@@ -1420,17 +1433,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="9" t="str">
-        <f t="shared" ref="D28:D29" si="1">B28&amp;"_"&amp;C28</f>
-        <v>UnitGlobalBuff_AddCoinWhenBattleEnd_TowerAlchemy2</v>
-      </c>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="9"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="9"/>
       <c r="H28" t="s">
         <v>44</v>
       </c>
@@ -1438,28 +1444,74 @@
         <v>0</v>
       </c>
       <c r="J28" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="9" t="str">
+        <f t="shared" ref="D29:D31" si="1">B29&amp;"_"&amp;C29</f>
+        <v>UnitGlobalBuff_AddCoinWhenBattleEnd_TowerAlchemy2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0</v>
+      </c>
+      <c r="J29" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="12" t="s">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="9"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="9"/>
+      <c r="H30" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" s="9">
+        <v>0</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="9" t="str">
+      <c r="D31" s="9" t="str">
         <f t="shared" si="1"/>
         <v>UnitGlobalBuff_AddCoinWhenBattleEnd_TowerAlchemy3</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H31" t="s">
         <v>44</v>
       </c>
-      <c r="I29" s="9">
-        <v>0</v>
-      </c>
-      <c r="J29" s="9" t="s">
+      <c r="I31" s="9">
+        <v>0</v>
+      </c>
+      <c r="J31" s="9" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" s="9">
+        <v>0</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GlobalBuffConfig/UnitGlobalBuffCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GlobalBuffConfig/UnitGlobalBuffCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalBuffConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC6DF2F-B0C6-42AD-9A60-BC38DD0B4C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D824EB2-1EE6-4902-8749-5E5C899286FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,14 +150,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>actionCondition1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actionCondition2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>UnitGlobalBuff</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -290,6 +282,14 @@
   </si>
   <si>
     <t>DoUnitAction_AddCoinWhenBattleEnd_TowerAlchemy3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trigCondition1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trigCondition2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC80128B-4EBA-4F25-A843-E9FD87833AFD}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -738,16 +738,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
@@ -766,10 +766,10 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>15</v>
@@ -794,16 +794,16 @@
         <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
@@ -844,19 +844,19 @@
         <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>16</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -877,18 +877,18 @@
         <v>UnitGlobalBuff_1</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="4">
         <v>2</v>
@@ -898,18 +898,18 @@
         <v>UnitGlobalBuff_2</v>
       </c>
       <c r="J7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="4">
         <v>3</v>
@@ -919,18 +919,18 @@
         <v>UnitGlobalBuff_3</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="4">
         <v>4</v>
@@ -940,18 +940,18 @@
         <v>UnitGlobalBuff_4</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="4">
         <v>5</v>
@@ -961,18 +961,18 @@
         <v>UnitGlobalBuff_5</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="4">
         <v>6</v>
@@ -982,18 +982,18 @@
         <v>UnitGlobalBuff_6</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="4">
         <v>7</v>
@@ -1003,18 +1003,18 @@
         <v>UnitGlobalBuff_7</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="4">
         <v>8</v>
@@ -1024,18 +1024,18 @@
         <v>UnitGlobalBuff_8</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" s="4">
         <v>9</v>
@@ -1045,18 +1045,18 @@
         <v>UnitGlobalBuff_9</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="4">
         <v>10</v>
@@ -1066,18 +1066,18 @@
         <v>UnitGlobalBuff_10</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="4">
         <v>11</v>
@@ -1087,18 +1087,18 @@
         <v>UnitGlobalBuff_11</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="4">
         <v>12</v>
@@ -1108,18 +1108,18 @@
         <v>UnitGlobalBuff_12</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" s="4">
         <v>13</v>
@@ -1129,18 +1129,18 @@
         <v>UnitGlobalBuff_13</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" s="4">
         <v>14</v>
@@ -1150,18 +1150,18 @@
         <v>UnitGlobalBuff_14</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="4">
         <v>15</v>
@@ -1171,18 +1171,18 @@
         <v>UnitGlobalBuff_15</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" s="4">
         <v>16</v>
@@ -1192,18 +1192,18 @@
         <v>UnitGlobalBuff_16</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" s="4">
         <v>17</v>
@@ -1213,18 +1213,18 @@
         <v>UnitGlobalBuff_17</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C23" s="4">
         <v>18</v>
@@ -1234,76 +1234,76 @@
         <v>UnitGlobalBuff_18</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>UnitGlobalBuff_AddCoinWhenBattleEnd_TowerAlchemy1</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L25" s="4">
         <v>0</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D26" s="4" t="str">
         <f t="shared" ref="D26:D27" si="1">B26&amp;"_"&amp;C26</f>
         <v>UnitGlobalBuff_AddCoinWhenBattleEnd_TowerAlchemy2</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L26" s="4">
         <v>0</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D27" s="4" t="str">
         <f t="shared" si="1"/>
         <v>UnitGlobalBuff_AddCoinWhenBattleEnd_TowerAlchemy3</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L27" s="4">
         <v>0</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GlobalBuffConfig/UnitGlobalBuffCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GlobalBuffConfig/UnitGlobalBuffCfg.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalBuffConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalBuffConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D824EB2-1EE6-4902-8749-5E5C899286FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6362C6-B061-4886-AC92-1F65D72BDBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="80">
   <si>
     <t>##var</t>
   </si>
@@ -136,9 +125,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>action_id</t>
-  </si>
-  <si>
     <t>触发事件</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -150,10 +136,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>UnitGlobalBuff</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>tickTime</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -166,18 +148,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AddCoinWhenBattleEnd_TowerAlchemy1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddCoinWhenBattleEnd_TowerAlchemy2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddCoinWhenBattleEnd_TowerAlchemy3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>tagGroup</t>
   </si>
   <si>
@@ -273,23 +243,104 @@
     <t>ChgGamePlayNumeric_16</t>
   </si>
   <si>
-    <t>DoUnitAction_AddCoinWhenBattleEnd_TowerAlchemy1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DoUnitAction_AddCoinWhenBattleEnd_TowerAlchemy2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DoUnitAction_AddCoinWhenBattleEnd_TowerAlchemy3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>trigCondition1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>trigCondition2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitGlobalBuff_1</t>
+  </si>
+  <si>
+    <t>UnitGlobalBuff_2</t>
+  </si>
+  <si>
+    <t>UnitGlobalBuff_3</t>
+  </si>
+  <si>
+    <t>UnitGlobalBuff_4</t>
+  </si>
+  <si>
+    <t>UnitGlobalBuff_5</t>
+  </si>
+  <si>
+    <t>UnitGlobalBuff_6</t>
+  </si>
+  <si>
+    <t>UnitGlobalBuff_7</t>
+  </si>
+  <si>
+    <t>UnitGlobalBuff_8</t>
+  </si>
+  <si>
+    <t>UnitGlobalBuff_9</t>
+  </si>
+  <si>
+    <t>UnitGlobalBuff_10</t>
+  </si>
+  <si>
+    <t>UnitGlobalBuff_11</t>
+  </si>
+  <si>
+    <t>UnitGlobalBuff_12</t>
+  </si>
+  <si>
+    <t>UnitGlobalBuff_13</t>
+  </si>
+  <si>
+    <t>UnitGlobalBuff_14</t>
+  </si>
+  <si>
+    <t>UnitGlobalBuff_15</t>
+  </si>
+  <si>
+    <t>UnitGlobalBuff_16</t>
+  </si>
+  <si>
+    <t>UnitGlobalBuff_17</t>
+  </si>
+  <si>
+    <t>UnitGlobalBuff_18</t>
+  </si>
+  <si>
+    <t>UnitGlobalBuff_NormalAttack_Tower_Alchemy1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitGlobalBuff_NormalAttack_Tower_Alchemy2</t>
+  </si>
+  <si>
+    <t>DoUnitAction_NormalAttack_Tower_Alchemy1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoUnitAction_NormalAttack_Tower_Alchemy2</t>
+  </si>
+  <si>
+    <t>DoUnitAction_NormalAttack_Tower_Alchemy3</t>
+  </si>
+  <si>
+    <t>DoUnitAction_GoToDie_Org</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitGlobalBuff_NormalAttack_Tower_Alchemy3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actionIds</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitGlobalBuff_GoToDie_Org_BattleEnd</t>
+  </si>
+  <si>
+    <t>UnitGlobalBuff_GoToDie_Org_PlayerQuit</t>
+  </si>
+  <si>
+    <t>TriggerImmediatelyNoParam;GamePlay_Status_PlayerQuit</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -419,13 +470,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -709,51 +763,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC80128B-4EBA-4F25-A843-E9FD87833AFD}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="27.6640625" customWidth="1"/>
-    <col min="11" max="11" width="44.88671875" customWidth="1"/>
-    <col min="13" max="13" width="41.109375" customWidth="1"/>
+    <col min="8" max="8" width="27.625" customWidth="1"/>
+    <col min="9" max="9" width="44.875" customWidth="1"/>
+    <col min="11" max="11" width="41.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -763,553 +815,426 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="J2" s="1" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="3" t="s">
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f>B6&amp;"_"&amp;C6</f>
-        <v>UnitGlobalBuff_1</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" ref="D7:D25" si="0">B7&amp;"_"&amp;C7</f>
-        <v>UnitGlobalBuff_2</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4">
-        <v>3</v>
-      </c>
-      <c r="D8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>UnitGlobalBuff_3</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="4">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>UnitGlobalBuff_4</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4">
-        <v>5</v>
-      </c>
-      <c r="D10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>UnitGlobalBuff_5</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="4">
-        <v>6</v>
-      </c>
-      <c r="D11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>UnitGlobalBuff_6</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="4">
-        <v>7</v>
-      </c>
-      <c r="D12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>UnitGlobalBuff_7</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="4">
-        <v>8</v>
-      </c>
-      <c r="D13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>UnitGlobalBuff_8</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="4">
-        <v>9</v>
-      </c>
-      <c r="D14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>UnitGlobalBuff_9</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="4">
-        <v>10</v>
-      </c>
-      <c r="D15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>UnitGlobalBuff_10</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="4">
-        <v>11</v>
-      </c>
-      <c r="D16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>UnitGlobalBuff_11</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="4">
-        <v>12</v>
-      </c>
-      <c r="D17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>UnitGlobalBuff_12</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="4">
-        <v>13</v>
-      </c>
-      <c r="D18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>UnitGlobalBuff_13</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4">
-        <v>14</v>
-      </c>
-      <c r="D19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>UnitGlobalBuff_14</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="4">
-        <v>15</v>
-      </c>
-      <c r="D20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>UnitGlobalBuff_15</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="4">
-        <v>16</v>
-      </c>
-      <c r="D21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>UnitGlobalBuff_16</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="4">
-        <v>17</v>
-      </c>
-      <c r="D22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>UnitGlobalBuff_17</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="4">
-        <v>18</v>
-      </c>
-      <c r="D23" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>UnitGlobalBuff_18</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>UnitGlobalBuff_AddCoinWhenBattleEnd_TowerAlchemy1</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L25" s="4">
-        <v>0</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="4" t="str">
-        <f t="shared" ref="D26:D27" si="1">B26&amp;"_"&amp;C26</f>
-        <v>UnitGlobalBuff_AddCoinWhenBattleEnd_TowerAlchemy2</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L26" s="4">
-        <v>0</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>UnitGlobalBuff_AddCoinWhenBattleEnd_TowerAlchemy3</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L27" s="4">
-        <v>0</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>56</v>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H3:K3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
